--- a/va_facility_data_2025-02-20/Olean VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Olean%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Olean VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Olean%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Raa3f25cf9ffc45128cb950d79fdc7fa6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R759631e0692a425f8e3377a47daf5bf8"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc6a651d0205648199465eac02c9f70d5"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R01ffdbfd5bb74a94b0baffbaf888ed4c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8285daa5ac8f47e4a68025289548ac9e"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R711825eb93d24862a9b825c86ef7027c"/>
   </x:sheets>
 </x:workbook>
 </file>
